--- a/fuentes/contenidos/grado09/guion01/SolicitudGrafica_CS_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/SolicitudGrafica_CS_09_01_CO.xlsx
@@ -21,6 +21,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -528,9 +529,6 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t>CS_08_01_CO</t>
-  </si>
-  <si>
     <t>Ana Maria Lara</t>
   </si>
   <si>
@@ -613,6 +611,9 @@
   </si>
   <si>
     <t>El imperialismo y la primera guerra mundial</t>
+  </si>
+  <si>
+    <t>CS_09_01_CO</t>
   </si>
 </sst>
 </file>
@@ -2346,6 +2347,308 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Solicitud gráfica"/>
+      <sheetName val="Ayuda"/>
+      <sheetName val="Definición técnica de imagenes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>M3A</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Asociar imagen-texto</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>110 x 110 px</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>M5A</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Test - con imagen</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>M6A</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Test de validar escritura</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>M7A</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Test matemático (fórmula)</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>110 x 110 px</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>M8A</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Test - atlas - respuesta feedback</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>M9B</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Posicionar etiquetas en imagen</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>M9C</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Escribir etiquetas en imagen</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>M10B</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Contenedores de imágenes</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>273 x 51 px</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>M12D</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Ordenar secuencias según texto con imagen</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>M101</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Preguntas con respuesta libre</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>286 x 286 px</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>500 x 500 px</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Motores "F"</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>F6, F6b, F7, F11, F13</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>JPG</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>800 x 460 px</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Motores "F13" Portada</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>F13</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>613 × 180 px</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Diaporamas "Escriba"</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Foto con una linea de texto</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>WEB, no rebasar los 100K</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>JPG</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>950 x 608 px</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Cuaderno de estudio</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>WEB, no rebasar los 100K</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>JPG o PNG</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>526 x 370 px</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>800 x 600 px</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Iconos del guión</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>WEB</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>PNG</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>thumb =
+132 x 69 px</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>med =
+378 x 268 px</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -5123,9 +5426,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="57" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5198,7 +5501,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="5"/>
@@ -5219,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="5"/>
@@ -5254,7 +5557,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>40</v>
@@ -5327,7 +5630,7 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;Ayuda!A5,J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5339,21 +5642,24 @@
       <c r="E10" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="str">
+        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_01_CO_IMG01_small</v>
+      </c>
       <c r="G10" s="14" t="str">
-        <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG01_zoom</v>
+        <v>CS_09_01_CO_IMG01_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -5363,7 +5669,7 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="26" t="str">
         <f>IF(OR(B11&lt;&gt;[1]Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5373,16 +5679,19 @@
         <v>148</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_01_CO_IMG02_small</v>
+      </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[1]Definición técnica de imagenes'!$E$15,'[1]Definición técnica de imagenes'!$F$13)),'[1]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
         <f>IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG02_zoom</v>
+        <v>CS_09_01_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[1]Definición técnica de imagenes'!$F$16),"")</f>
@@ -5397,7 +5706,7 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="26" t="str">
         <f>IF(OR(B12&lt;&gt;[2]Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5407,16 +5716,19 @@
         <v>148</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f t="shared" ref="F12:F16" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_01_CO_IMG03_small</v>
+      </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[2]Definición técnica de imagenes'!$E$15,'[2]Definición técnica de imagenes'!$F$13)),'[2]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
         <f>IF(I12&lt;&gt;"",IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG03_zoom</v>
+        <v>CS_09_01_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[2]Definición técnica de imagenes'!$F$16),"")</f>
@@ -5431,7 +5743,7 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="26" t="str">
         <f>IF(OR(B13&lt;&gt;[3]Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5443,41 +5755,44 @@
       <c r="E13" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CS_09_01_CO_IMG04_small</v>
+      </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[3]Definición técnica de imagenes'!$E$15,'[3]Definición técnica de imagenes'!$F$13)),'[3]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H13" s="14" t="str">
         <f>IF(I13&lt;&gt;"",IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE($C$7,"_",$A13,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG04_zoom</v>
+        <v>CS_09_01_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[3]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
-        <f t="shared" ref="A14:A30" si="0">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
+        <f t="shared" ref="A14:A30" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
         <v>IMG05</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="26" t="str">
-        <f t="shared" ref="C14:C18" si="1">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C14:C18" si="2">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="str">
-        <f t="shared" ref="F14:F74" si="2">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_08_01_CO_IMG05_small</v>
+        <f t="shared" si="0"/>
+        <v>CS_09_01_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -5485,14 +5800,14 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" ref="H14:H74" si="3">IF(I14&lt;&gt;"",IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG05_zoom</v>
+        <v>CS_09_01_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -5502,7 +5817,7 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="74" t="str">
         <f>IF(OR(B15&lt;&gt;[4]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5514,77 +5829,83 @@
       <c r="E15" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CS_09_01_CO_IMG06_small</v>
+      </c>
       <c r="G15" s="75" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[4]Definición técnica de imagenes'!$E$15,'[4]Definición técnica de imagenes'!$F$13)),'[4]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H15" s="75" t="str">
         <f>IF(I15&lt;&gt;"",IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG06_zoom</v>
+        <v>CS_09_01_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="75" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[4]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K15" s="76"/>
     </row>
-    <row r="16" spans="1:16" s="77" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="77" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="73" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),"IMG07","")</f>
         <v>IMG07</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="74" t="str">
         <f>IF(OR(B16&lt;&gt;[5]Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>CS_09_01_CO_IMG07_small</v>
+      </c>
       <c r="G16" s="75" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H16" s="75" t="str">
         <f>IF(I16&lt;&gt;"",IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG07_zoom</v>
+        <v>CS_09_01_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="75" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="81" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_08_01_CO_IMG08_small</v>
+        <f t="shared" ref="F14:F74" si="4">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_01_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -5592,34 +5913,34 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>CS_08_01_CO_IMG08_zoom</v>
+        <v>CS_09_01_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_08_01_CO_IMG09_small</v>
+        <f t="shared" si="4"/>
+        <v>CS_09_01_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -5627,14 +5948,14 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>CS_08_01_CO_IMG09_zoom</v>
+        <v>CS_09_01_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -5644,33 +5965,36 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="74" t="str">
         <f>IF(OR(B19&lt;&gt;[6]Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>CS_09_01_CO_IMG10_small</v>
+      </c>
       <c r="G19" s="75" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H19" s="75" t="str">
         <f>IF(I19&lt;&gt;"",IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG10_zoom</v>
+        <v>CS_09_01_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="75" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" s="76"/>
     </row>
@@ -5680,7 +6004,7 @@
         <v>IMG11</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="74" t="str">
         <f>IF(OR(B20&lt;&gt;[7]Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5692,21 +6016,24 @@
       <c r="E20" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>CS_09_01_CO_IMG11_small</v>
+      </c>
       <c r="G20" s="75" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H20" s="75" t="str">
         <f>IF(I20&lt;&gt;"",IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG11_zoom</v>
+        <v>CS_09_01_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="75" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K20" s="76"/>
     </row>
@@ -5716,33 +6043,36 @@
         <v>IMG12</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="74" t="str">
         <f>IF(OR(B21&lt;&gt;[8]Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="75"/>
+      <c r="F21" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>CS_09_01_CO_IMG12_small</v>
+      </c>
       <c r="G21" s="75" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H21" s="75" t="str">
         <f>IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG12_zoom</v>
+        <v>CS_09_01_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="75" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K21" s="76"/>
     </row>
@@ -5752,7 +6082,7 @@
         <v>IMG13</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="74" t="str">
         <f>IF(OR(B22&lt;&gt;[9]Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -5762,29 +6092,32 @@
         <v>148</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>CS_09_01_CO_IMG13_small</v>
+      </c>
       <c r="G22" s="75" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H22" s="75" t="str">
         <f>IF(I22&lt;&gt;"",IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG13_zoom</v>
+        <v>CS_09_01_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="75" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K22" s="76"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B23" s="27"/>
@@ -5792,7 +6125,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G23" s="14" t="str">
@@ -5812,7 +6145,7 @@
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B24" s="26"/>
@@ -5820,7 +6153,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G24" s="14" t="str">
@@ -5840,7 +6173,7 @@
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B25" s="27"/>
@@ -5848,7 +6181,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G25" s="14" t="str">
@@ -5868,7 +6201,7 @@
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B26" s="27"/>
@@ -5876,7 +6209,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G26" s="14" t="str">
@@ -5896,7 +6229,7 @@
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B27" s="27"/>
@@ -5904,7 +6237,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G27" s="14" t="str">
@@ -5924,7 +6257,7 @@
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B28" s="26"/>
@@ -5932,7 +6265,7 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G28" s="14" t="str">
@@ -5952,7 +6285,7 @@
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B29" s="27"/>
@@ -5960,7 +6293,7 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -5980,7 +6313,7 @@
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B30" s="27"/>
@@ -5988,7 +6321,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -6013,7 +6346,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -6038,7 +6371,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -6063,7 +6396,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -6088,7 +6421,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -6113,7 +6446,7 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -6138,7 +6471,7 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -6163,7 +6496,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -6188,7 +6521,7 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -6213,7 +6546,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -6238,7 +6571,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -6263,7 +6596,7 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -6288,7 +6621,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -6313,7 +6646,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -6338,7 +6671,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -6363,7 +6696,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -6388,7 +6721,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -6413,7 +6746,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -6438,7 +6771,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -6463,7 +6796,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -6488,7 +6821,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -6513,7 +6846,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -6538,7 +6871,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -6563,7 +6896,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -6588,7 +6921,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -6613,7 +6946,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -6638,7 +6971,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -6663,7 +6996,7 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -6688,7 +7021,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -6713,7 +7046,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -6738,7 +7071,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -6763,7 +7096,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -6788,7 +7121,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -6813,7 +7146,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -6838,7 +7171,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -6863,7 +7196,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -6888,7 +7221,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -6913,7 +7246,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -6938,7 +7271,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -6963,7 +7296,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -6988,7 +7321,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -7013,7 +7346,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -7038,7 +7371,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -7063,7 +7396,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -7088,7 +7421,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -7113,7 +7446,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -7121,7 +7454,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="5">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" si="6">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -7138,7 +7471,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -7146,7 +7479,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -7163,7 +7496,7 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -7171,7 +7504,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -7188,7 +7521,7 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -7196,7 +7529,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -7213,7 +7546,7 @@
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -7221,7 +7554,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -7238,7 +7571,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -7246,7 +7579,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -7263,7 +7596,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -7271,7 +7604,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -7288,7 +7621,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -7296,7 +7629,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -7313,7 +7646,7 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -7321,7 +7654,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -7338,7 +7671,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -7346,7 +7679,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -7363,7 +7696,7 @@
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -7371,7 +7704,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -7388,7 +7721,7 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -7396,7 +7729,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -7413,7 +7746,7 @@
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -7421,7 +7754,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -7438,7 +7771,7 @@
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -7446,7 +7779,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -7463,7 +7796,7 @@
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -7471,7 +7804,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -7488,7 +7821,7 @@
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -7496,7 +7829,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -7513,7 +7846,7 @@
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -7521,7 +7854,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -7538,7 +7871,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -7546,7 +7879,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -7563,7 +7896,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -7571,7 +7904,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -7588,7 +7921,7 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -7596,7 +7929,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -7613,7 +7946,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -7621,7 +7954,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -7638,7 +7971,7 @@
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -7646,7 +7979,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -7663,7 +7996,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -7671,7 +8004,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -7688,7 +8021,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -7696,7 +8029,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -7713,7 +8046,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G99" s="14" t="str">
@@ -7721,7 +8054,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -7738,7 +8071,7 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G100" s="14" t="str">
@@ -7746,7 +8079,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -7763,7 +8096,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G101" s="14" t="str">
@@ -7771,7 +8104,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -7788,7 +8121,7 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G102" s="14" t="str">
@@ -7796,7 +8129,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -7813,7 +8146,7 @@
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G103" s="14" t="str">
@@ -7821,7 +8154,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -7838,7 +8171,7 @@
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G104" s="14" t="str">
@@ -7846,7 +8179,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -7863,7 +8196,7 @@
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G105" s="14" t="str">
@@ -7871,7 +8204,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -7888,7 +8221,7 @@
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G106" s="14" t="str">
@@ -7896,7 +8229,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -7913,7 +8246,7 @@
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G107" s="14" t="str">
@@ -7921,7 +8254,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -7938,7 +8271,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G108" s="14" t="str">
@@ -7946,7 +8279,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">

--- a/fuentes/contenidos/grado09/guion01/SolicitudGrafica_CS_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/SolicitudGrafica_CS_09_01_CO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>Vertical</t>
-  </si>
-  <si>
-    <t>Ilustración</t>
   </si>
   <si>
     <t>Ana Maria Lara</t>
@@ -2048,14 +2045,8 @@
       <sheetName val="Definición técnica de imagenes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>¿Cómo se construye el código de cada guión?</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="A3" t="str">
@@ -2357,7 +2348,13 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>En este documento ¿dónde se usa este código?</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="A3" t="str">
@@ -2660,9 +2657,9 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>1. Las dos primeras siglas, en mayúsculas, corresponden al área: MA para Matemáticas, CN para Ciencias Naturales, CS para Ciencias Sociales y LE para Lenguaje.</v>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>¿Cómo se construye el código de cada guión?</v>
           </cell>
         </row>
       </sheetData>
@@ -2968,9 +2965,9 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>2. Luego, separado por un guión bajo, las siglas que corresponden al grado, SIEMPRE con dos dígitos: 03 para tercero de primaria, 05 para quinto, 10 para décimo y 11 para undécimo.</v>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>1. Las dos primeras siglas, en mayúsculas, corresponden al área: MA para Matemáticas, CN para Ciencias Naturales, CS para Ciencias Sociales y LE para Lenguaje.</v>
           </cell>
         </row>
       </sheetData>
@@ -3276,9 +3273,9 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>4. Finalmente, y separado por un guión bajo también, el código del país: SIEMPRE será CO, para Colombia.</v>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>2. Luego, separado por un guión bajo, las siglas que corresponden al grado, SIEMPRE con dos dígitos: 03 para tercero de primaria, 05 para quinto, 10 para décimo y 11 para undécimo.</v>
           </cell>
         </row>
       </sheetData>
@@ -3582,8 +3579,14 @@
       <sheetName val="Definición técnica de imagenes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>4. Finalmente, y separado por un guión bajo también, el código del país: SIEMPRE será CO, para Colombia.</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="A3" t="str">
@@ -4187,13 +4190,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>¿Qué es el código de recurso?</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="A3" t="str">
@@ -4496,9 +4493,9 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Es una serie de siglas que conforman la nomenclatura con la que se denominan los archivos correspondientes a un recurso específico. Este código es muy importante porque se usa para distinguir a los archivos relacionados con dicho recurso (formato de recurso, imágenes, solicitudes, etc)</v>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>¿Qué es el código de recurso?</v>
           </cell>
         </row>
       </sheetData>
@@ -4804,9 +4801,9 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>En este documento ¿dónde se usa este código?</v>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Es una serie de siglas que conforman la nomenclatura con la que se denominan los archivos correspondientes a un recurso específico. Este código es muy importante porque se usa para distinguir a los archivos relacionados con dicho recurso (formato de recurso, imágenes, solicitudes, etc)</v>
           </cell>
         </row>
       </sheetData>
@@ -5427,8 +5424,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="57" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5501,7 +5498,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="5"/>
@@ -5522,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="5"/>
@@ -5557,7 +5554,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>40</v>
@@ -5630,14 +5627,14 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>IF(OR(B10&lt;&gt;Ayuda!A5,J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>147</v>
@@ -5647,7 +5644,7 @@
         <v>CS_09_01_CO_IMG01_small</v>
       </c>
       <c r="G10" s="14" t="str">
-        <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[1]Definición técnica de imagenes'!$E$15,'[1]Definición técnica de imagenes'!$F$13)),'[1]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H10" s="14" t="str">
@@ -5659,7 +5656,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -5669,24 +5666,24 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>IF(OR(B11&lt;&gt;[2]Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="C11" s="26" t="str">
-        <f>IF(OR(B11&lt;&gt;[1]Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_01_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
-        <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[1]Definición técnica de imagenes'!$E$15,'[1]Definición técnica de imagenes'!$F$13)),'[1]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[2]Definición técnica de imagenes'!$E$15,'[2]Definición técnica de imagenes'!$F$13)),'[2]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
@@ -5694,7 +5691,7 @@
         <v>CS_09_01_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[1]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[2]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="14"/>
@@ -5706,24 +5703,24 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="26" t="str">
-        <f>IF(OR(B12&lt;&gt;[2]Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B12&lt;&gt;[3]Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" ref="F12:F16" si="0">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_01_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
-        <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[2]Definición técnica de imagenes'!$E$15,'[2]Definición técnica de imagenes'!$F$13)),'[2]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[3]Definición técnica de imagenes'!$E$15,'[3]Definición técnica de imagenes'!$F$13)),'[3]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
@@ -5731,26 +5728,26 @@
         <v>CS_09_01_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[2]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[3]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),"IMG04","")</f>
         <v>IMG04</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="26" t="str">
-        <f>IF(OR(B13&lt;&gt;[3]Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B13&lt;&gt;[4]Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>147</v>
@@ -5760,7 +5757,7 @@
         <v>CS_09_01_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
-        <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[3]Definición técnica de imagenes'!$E$15,'[3]Definición técnica de imagenes'!$F$13)),'[3]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[4]Definición técnica de imagenes'!$E$15,'[4]Definición técnica de imagenes'!$F$13)),'[4]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H13" s="14" t="str">
@@ -5768,11 +5765,11 @@
         <v>CS_09_01_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[3]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[4]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -5782,13 +5779,15 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="26" t="str">
         <f t="shared" ref="C14:C18" si="2">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -5807,7 +5806,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -5817,14 +5816,14 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="74" t="str">
-        <f>IF(OR(B15&lt;&gt;[4]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B15&lt;&gt;[5]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="75" t="s">
-        <v>148</v>
+      <c r="D15" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E15" s="75" t="s">
         <v>147</v>
@@ -5834,7 +5833,7 @@
         <v>CS_09_01_CO_IMG06_small</v>
       </c>
       <c r="G15" s="75" t="str">
-        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[4]Definición técnica de imagenes'!$E$15,'[4]Definición técnica de imagenes'!$F$13)),'[4]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H15" s="75" t="str">
@@ -5842,11 +5841,11 @@
         <v>CS_09_01_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="75" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[4]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" s="76"/>
     </row>
@@ -5856,24 +5855,24 @@
         <v>IMG07</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="74" t="str">
-        <f>IF(OR(B16&lt;&gt;[5]Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B16&lt;&gt;[6]Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="75" t="s">
-        <v>161</v>
+      <c r="D16" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>CS_09_01_CO_IMG07_small</v>
       </c>
       <c r="G16" s="75" t="str">
-        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H16" s="75" t="str">
@@ -5881,11 +5880,11 @@
         <v>CS_09_01_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="75" t="str">
-        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K16" s="76"/>
     </row>
@@ -5895,16 +5894,18 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14" t="str">
-        <f t="shared" ref="F14:F74" si="4">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F17:F74" si="4">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_09_01_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
@@ -5920,7 +5921,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K17" s="20"/>
     </row>
@@ -5930,13 +5931,15 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="26" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="str">
         <f t="shared" si="4"/>
@@ -5955,7 +5958,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -5965,14 +5968,14 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="74" t="str">
-        <f>IF(OR(B19&lt;&gt;[6]Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B19&lt;&gt;[7]Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D19" s="75" t="s">
-        <v>161</v>
+      <c r="D19" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E19" s="75" t="s">
         <v>147</v>
@@ -5982,7 +5985,7 @@
         <v>CS_09_01_CO_IMG10_small</v>
       </c>
       <c r="G19" s="75" t="str">
-        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H19" s="75" t="str">
@@ -5990,11 +5993,11 @@
         <v>CS_09_01_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="75" t="str">
-        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K19" s="76"/>
     </row>
@@ -6004,14 +6007,14 @@
         <v>IMG11</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="74" t="str">
-        <f>IF(OR(B20&lt;&gt;[7]Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B20&lt;&gt;[8]Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D20" s="75" t="s">
-        <v>148</v>
+      <c r="D20" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E20" s="75" t="s">
         <v>147</v>
@@ -6021,7 +6024,7 @@
         <v>CS_09_01_CO_IMG11_small</v>
       </c>
       <c r="G20" s="75" t="str">
-        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H20" s="75" t="str">
@@ -6029,11 +6032,11 @@
         <v>CS_09_01_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="75" t="str">
-        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K20" s="76"/>
     </row>
@@ -6043,14 +6046,14 @@
         <v>IMG12</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="74" t="str">
-        <f>IF(OR(B21&lt;&gt;[8]Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B21&lt;&gt;[9]Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="75" t="s">
-        <v>161</v>
+      <c r="D21" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E21" s="75" t="s">
         <v>147</v>
@@ -6060,7 +6063,7 @@
         <v>CS_09_01_CO_IMG12_small</v>
       </c>
       <c r="G21" s="75" t="str">
-        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H21" s="75" t="str">
@@ -6068,11 +6071,11 @@
         <v>CS_09_01_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="75" t="str">
-        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K21" s="76"/>
     </row>
@@ -6082,24 +6085,24 @@
         <v>IMG13</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="74" t="str">
-        <f>IF(OR(B22&lt;&gt;[9]Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B22&lt;&gt;[10]Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>148</v>
+      <c r="D22" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="4"/>
         <v>CS_09_01_CO_IMG13_small</v>
       </c>
       <c r="G22" s="75" t="str">
-        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
+        <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H22" s="75" t="str">
@@ -6107,11 +6110,11 @@
         <v>CS_09_01_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="75" t="str">
-        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K22" s="76"/>
     </row>
